--- a/DesignerConfigs/Datas/__enums__.xlsx
+++ b/DesignerConfigs/Datas/__enums__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23055" windowHeight="4440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>注释</t>
+  </si>
+  <si>
+    <t>EAttack_Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
+    <t>CloseAttack</t>
+  </si>
+  <si>
+    <t>近距离攻击</t>
+  </si>
+  <si>
+    <t>RemoteAttack</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
@@ -1038,6 +1059,7 @@
     <col min="7" max="7" width="21.375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1111,6 +1133,34 @@
       </c>
       <c r="J3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
